--- a/data_analysis/Fig_09_Ind_analysis_Funding_ratio.xlsx
+++ b/data_analysis/Fig_09_Ind_analysis_Funding_ratio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapt8/Documents/Jobs/Helsinki_2023/Application/Discussion_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapt8/Documents/00_UCU_USS_JNC/USS_Valuations2014-2023_paper/Discussion_paper/Github_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0E6B59-DD4A-2E48-ADDE-1469E5C892B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6CF6C2-FDDD-6844-98C6-194CC1C4DAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="500" windowWidth="22560" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,13 +24,14 @@
     <sheet name="60%_equititess_dataCOV" sheetId="6" r:id="rId9"/>
     <sheet name="90%_bonds_image" sheetId="3" r:id="rId10"/>
     <sheet name="40%_bonds_image" sheetId="4" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="14">
   <si>
     <t>Cumulative liklihood of default</t>
   </si>
@@ -67,6 +68,12 @@
   <si>
     <t>WITH COVENANT</t>
   </si>
+  <si>
+    <t>Refs</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1wCsL6dXWFUR5O4u66NknkClppNJZwLQPX_5sz9RSxPg/edit?usp=sharing</t>
+  </si>
 </sst>
 </file>
 
@@ -75,7 +82,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -101,6 +108,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -164,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -195,6 +209,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20820,8 +20835,8 @@
   </sheetPr>
   <dimension ref="A1:AA80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22784,7 +22799,7 @@
   </sheetPr>
   <dimension ref="A1:AG131"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
@@ -27579,7 +27594,7 @@
   </sheetPr>
   <dimension ref="A1:Y80"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B80"/>
     </sheetView>
   </sheetViews>
@@ -29365,7 +29380,7 @@
   </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -29410,4 +29425,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B08C09-2807-3A49-8F05-7C54EC6692DB}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_analysis/Fig_09_Ind_analysis_Funding_ratio.xlsx
+++ b/data_analysis/Fig_09_Ind_analysis_Funding_ratio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapt8/Documents/00_UCU_USS_JNC/USS_Valuations2014-2023_paper/Discussion_paper/Github_uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6CF6C2-FDDD-6844-98C6-194CC1C4DAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3512362-DC95-724C-ABDC-D27801C227DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="500" windowWidth="22560" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="520" windowWidth="22560" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart90%Bonds" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,20 @@
     <sheet name="40%_bonds_image" sheetId="4" r:id="rId11"/>
     <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4040,7 +4053,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>initial assets £90-120bn, 30-yr covt. (£30bn)</a:t>
+              <a:t>initial assets £90-120bn, 30 yr covt. (£30bn)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7549,7 +7562,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>initial assets £60-90bn, 30-yr covt. (£30bn)</a:t>
+              <a:t>initial assets £60-90bn, 30 yr covt. (£30bn)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10222,10 +10235,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -20304,7 +20314,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2DC66323-05B7-9D45-AAB7-171D05493AB0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20326,7 +20336,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A14D735B-23CD-754A-8883-4BD98DFADCF2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
